--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value676.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value676.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.633824177075548</v>
+        <v>1.535005927085876</v>
       </c>
       <c r="B1">
-        <v>2.005983440932328</v>
+        <v>1.882046580314636</v>
       </c>
       <c r="C1">
-        <v>2.794882208054213</v>
+        <v>2.007616758346558</v>
       </c>
       <c r="D1">
-        <v>2.244839498672368</v>
+        <v>2.318821430206299</v>
       </c>
       <c r="E1">
-        <v>0.6488338378968743</v>
+        <v>2.919097900390625</v>
       </c>
     </row>
   </sheetData>
